--- a/App/selenium_files/settings/user_pass.xlsx
+++ b/App/selenium_files/settings/user_pass.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\honeymoon_project\selenium\hesabro\settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\honeymoon science\App\selenium_files\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBAC12C-72D0-49F4-AD78-BD57265B2BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="13140" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="350" yWindow="350" windowWidth="13140" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,12 +65,6 @@
     <t>1339754</t>
   </si>
   <si>
-    <t>https://honeymoonatr.com/di-admin/</t>
-  </si>
-  <si>
-    <t>honeymoon</t>
-  </si>
-  <si>
     <t>JavadPA</t>
   </si>
   <si>
@@ -82,17 +75,23 @@
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>https://honeymoonatr.com</t>
+  </si>
+  <si>
+    <t>honeymoonatr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -100,7 +99,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -410,30 +409,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -448,7 +447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -459,16 +458,16 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -479,41 +478,42 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{5F69795B-B28F-4BF4-9E01-ECA2A3C9B3A7}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{547AEB12-A8AA-4EF6-86B5-49589D7030D7}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>